--- a/config_Release/buyu_challenge_task_server.xlsx
+++ b/config_Release/buyu_challenge_task_server.xlsx
@@ -5,24 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JY\JyQipai_doc\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="buyu_challenge_task1" sheetId="1" r:id="rId1"/>
     <sheet name="buyu_challenge_task2" sheetId="2" r:id="rId2"/>
     <sheet name="buyu_challenge_task3" sheetId="3" r:id="rId3"/>
     <sheet name="buyu_challenge_task4" sheetId="4" r:id="rId4"/>
+    <sheet name="buyu_3d_challenge_task1" sheetId="5" r:id="rId5"/>
+    <sheet name="buyu_3d_challenge_task2" sheetId="6" r:id="rId6"/>
+    <sheet name="buyu_3d_challenge_task3" sheetId="7" r:id="rId7"/>
+    <sheet name="buyu_3d_challenge_task4" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
   <si>
     <t>id|</t>
   </si>
@@ -37,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +76,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +100,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +146,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,6 +158,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -924,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,7 +1155,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1337,4 +1369,528 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20300</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20301</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20302</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20303</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20304</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20305</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20306</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20307</v>
+      </c>
+      <c r="C9" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20308</v>
+      </c>
+      <c r="C10" s="5">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20400</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20401</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20402</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20403</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20404</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20405</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20406</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20407</v>
+      </c>
+      <c r="C9" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20408</v>
+      </c>
+      <c r="C10" s="6">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20500</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20501</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20502</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20503</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20504</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20505</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20506</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20507</v>
+      </c>
+      <c r="C9" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20508</v>
+      </c>
+      <c r="C10" s="5">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20600</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20601</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20602</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20603</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20604</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20605</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20606</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20607</v>
+      </c>
+      <c r="C9" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20608</v>
+      </c>
+      <c r="C10" s="5">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>